--- a/Confirmation_Results/Isobutane_Mie/ISBProduction.xlsx
+++ b/Confirmation_Results/Isobutane_Mie/ISBProduction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garrett\Desktop\School\Thesis\TMMC\Confirmation_Results\Isobutane_Mie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767B2A7F-335E-45BF-9F98-FF0AE60FA29E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DFB21F-247E-4C01-BBE3-E6ADF5A33439}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{44A91C0C-DAC2-4FAD-BE7D-8342A2F40AD6}"/>
   </bookViews>
@@ -9562,8 +9562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC1BA54-2254-4926-B00D-381057FF66E2}">
   <dimension ref="A1:N257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9670,7 +9670,7 @@
         <v>0.13228310242537286</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" ref="H5:H15" si="3">L24</f>
+        <f t="shared" ref="H5:H9" si="3">L24</f>
         <v>7.2978680179749036E-5</v>
       </c>
     </row>
